--- a/Fuel cell data.xlsx
+++ b/Fuel cell data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Exp 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,18 +72,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +116,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -142,396 +134,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF156082"/>
-      <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>Titre du diagramme</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="156082"/>
-            </a:solidFill>
-            <a:ln w="38160">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="156082"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Exp 3'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.354</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Exp 3'!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0975</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1092</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1045</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="15971528"/>
-        <c:axId val="64306778"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="15971528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64306778"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="64306778"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15971528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>654120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>272880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="654120" y="2990880"/>
-        <a:ext cx="5360400" cy="2698560"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,119 +316,119 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.105</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.67</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>3.3</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>3.19</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>3.52</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>3.64</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>3.68</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -854,155 +457,155 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="0" t="n">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3.86</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">A3+42</f>
         <v>60</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>4.05</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">A4+38.5</f>
         <v>98.5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4.13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">A5+41.3</f>
         <v>139.8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4.19</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">A6+34.8</f>
         <v>174.6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>4.23</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">A7+52.6</f>
         <v>227.2</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>4.26</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">A8+46.3</f>
         <v>273.5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>4.22</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">A9+41</f>
         <v>314.5</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>4.12</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1024,172 +627,172 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.898</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <f aca="false">B2*C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0025</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">B3*C3</f>
         <v>0.002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.76</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.0074</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">B4*C4</f>
         <v>0.005624</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.0203</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">B5*C5</f>
         <v>0.014413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.0512</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">B6*C6</f>
         <v>0.03328</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>3.3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.0975</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">B7*C7</f>
         <v>0.059475</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.48</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.124</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">B8*C8</f>
         <v>0.05952</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.354</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.1092</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">B9*C9</f>
         <v>0.0386568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.1045</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">B10*C10</f>
         <v>0.034485</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>0.325</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.1018</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">B11*C11</f>
         <v>0.033085</v>
       </c>
@@ -1202,7 +805,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1220,126 +822,126 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="0" t="n">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.055</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">8*60+10</f>
         <v>490</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.413</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0762</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">10*60+39</f>
         <v>639</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.484</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.078</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">15*60+18</f>
         <v>918</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.492</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.0791</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">18*60+42</f>
         <v>1122</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.493</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.0786</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">23*60</f>
         <v>1380</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.0786</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>12.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">27*60</f>
         <v>1620</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.484</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.0786</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>15</v>
       </c>
     </row>
